--- a/data/pca/factorExposure/factorExposure_2012-05-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-05-21.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01773409548860597</v>
+        <v>-0.02203142245586795</v>
       </c>
       <c r="C2">
-        <v>-0.03340258835124998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02642099112800868</v>
+      </c>
+      <c r="D2">
+        <v>0.002710158523891704</v>
+      </c>
+      <c r="E2">
+        <v>0.02738093747704588</v>
+      </c>
+      <c r="F2">
+        <v>-0.007527299869455761</v>
+      </c>
+      <c r="G2">
+        <v>-0.012566793742616</v>
+      </c>
+      <c r="H2">
+        <v>-0.05142582171783652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.070759189516621</v>
+        <v>-0.08024921371802424</v>
       </c>
       <c r="C4">
-        <v>-0.06033258076054071</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.04023088148315134</v>
+      </c>
+      <c r="D4">
+        <v>-0.07029284603660188</v>
+      </c>
+      <c r="E4">
+        <v>0.0009566925062937706</v>
+      </c>
+      <c r="F4">
+        <v>-0.03261202996281976</v>
+      </c>
+      <c r="G4">
+        <v>-0.0003365004323569462</v>
+      </c>
+      <c r="H4">
+        <v>0.02546276136876072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1004542715738356</v>
+        <v>-0.1164413855622245</v>
       </c>
       <c r="C6">
-        <v>-0.06449438076379997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.04101887863104528</v>
+      </c>
+      <c r="D6">
+        <v>-0.01465077084658619</v>
+      </c>
+      <c r="E6">
+        <v>-0.004303019610615784</v>
+      </c>
+      <c r="F6">
+        <v>-0.05286412316400422</v>
+      </c>
+      <c r="G6">
+        <v>-0.01609552351766735</v>
+      </c>
+      <c r="H6">
+        <v>-0.06867297533229667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04908253189245388</v>
+        <v>-0.05955001913281304</v>
       </c>
       <c r="C7">
-        <v>-0.03289798059577977</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.02201407267626204</v>
+      </c>
+      <c r="D7">
+        <v>-0.04143415786980817</v>
+      </c>
+      <c r="E7">
+        <v>0.0221706087038221</v>
+      </c>
+      <c r="F7">
+        <v>-0.03540879846124917</v>
+      </c>
+      <c r="G7">
+        <v>0.04299144366484973</v>
+      </c>
+      <c r="H7">
+        <v>0.02841936587325815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.0340476326687283</v>
+        <v>-0.03790633879726137</v>
       </c>
       <c r="C8">
-        <v>-0.02246794561969041</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01309040452401883</v>
+      </c>
+      <c r="D8">
+        <v>-0.03970182926066203</v>
+      </c>
+      <c r="E8">
+        <v>0.005145212689170236</v>
+      </c>
+      <c r="F8">
+        <v>-0.05067338683697291</v>
+      </c>
+      <c r="G8">
+        <v>-0.02250174031908393</v>
+      </c>
+      <c r="H8">
+        <v>-0.02722163355641819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06472825429377214</v>
+        <v>-0.07451213070816906</v>
       </c>
       <c r="C9">
-        <v>-0.04564045811034176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02754788090012298</v>
+      </c>
+      <c r="D9">
+        <v>-0.06822453347499821</v>
+      </c>
+      <c r="E9">
+        <v>0.02002315809564585</v>
+      </c>
+      <c r="F9">
+        <v>-0.0414935155153113</v>
+      </c>
+      <c r="G9">
+        <v>6.984242743742486e-05</v>
+      </c>
+      <c r="H9">
+        <v>0.05253487083808929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03216265099169786</v>
+        <v>-0.04079337928567352</v>
       </c>
       <c r="C10">
-        <v>-0.03490897283896439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.03587427926768993</v>
+      </c>
+      <c r="D10">
+        <v>0.1791877456508438</v>
+      </c>
+      <c r="E10">
+        <v>0.0471211349190394</v>
+      </c>
+      <c r="F10">
+        <v>-0.04273376394727438</v>
+      </c>
+      <c r="G10">
+        <v>0.03798015632494056</v>
+      </c>
+      <c r="H10">
+        <v>-0.03179149580080653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.06714228197183926</v>
+        <v>-0.07607987252636199</v>
       </c>
       <c r="C11">
-        <v>-0.05176491539175496</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.03143543550751816</v>
+      </c>
+      <c r="D11">
+        <v>-0.06689865311117307</v>
+      </c>
+      <c r="E11">
+        <v>-0.01056982466596718</v>
+      </c>
+      <c r="F11">
+        <v>-0.02864409519226547</v>
+      </c>
+      <c r="G11">
+        <v>0.01431019081541408</v>
+      </c>
+      <c r="H11">
+        <v>0.09405792991535444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05321644763525964</v>
+        <v>-0.0648488795118413</v>
       </c>
       <c r="C12">
-        <v>-0.05301001812268721</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03736271445048867</v>
+      </c>
+      <c r="D12">
+        <v>-0.05097290369522342</v>
+      </c>
+      <c r="E12">
+        <v>0.009204174018222929</v>
+      </c>
+      <c r="F12">
+        <v>-0.02582089984988605</v>
+      </c>
+      <c r="G12">
+        <v>0.008076027532999705</v>
+      </c>
+      <c r="H12">
+        <v>0.05152734266028622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.05793466059841405</v>
+        <v>-0.06517243962129009</v>
       </c>
       <c r="C13">
-        <v>-0.04950953693666993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.03108904434440078</v>
+      </c>
+      <c r="D13">
+        <v>-0.03855945874100588</v>
+      </c>
+      <c r="E13">
+        <v>-0.0006227919816120839</v>
+      </c>
+      <c r="F13">
+        <v>-0.001682626056470476</v>
+      </c>
+      <c r="G13">
+        <v>-0.002733115768578386</v>
+      </c>
+      <c r="H13">
+        <v>0.06418512209836409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03147627669939104</v>
+        <v>-0.03983030757721193</v>
       </c>
       <c r="C14">
-        <v>-0.03231930987289236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02515939909085701</v>
+      </c>
+      <c r="D14">
+        <v>-0.006219084670544743</v>
+      </c>
+      <c r="E14">
+        <v>0.02118953973299129</v>
+      </c>
+      <c r="F14">
+        <v>-0.02043167367058307</v>
+      </c>
+      <c r="G14">
+        <v>-0.003735646991290151</v>
+      </c>
+      <c r="H14">
+        <v>0.05797034753492283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04019464642876305</v>
+        <v>-0.04022755480240701</v>
       </c>
       <c r="C15">
-        <v>-0.01151712158668264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.001384360964025633</v>
+      </c>
+      <c r="D15">
+        <v>-0.00917838805249035</v>
+      </c>
+      <c r="E15">
+        <v>0.03967088801198578</v>
+      </c>
+      <c r="F15">
+        <v>0.000721442419527015</v>
+      </c>
+      <c r="G15">
+        <v>-0.02110019490669735</v>
+      </c>
+      <c r="H15">
+        <v>0.05731746301772593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.05608698133811169</v>
+        <v>-0.06473369693795558</v>
       </c>
       <c r="C16">
-        <v>-0.04493775401374783</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02915205819247148</v>
+      </c>
+      <c r="D16">
+        <v>-0.06222565599672417</v>
+      </c>
+      <c r="E16">
+        <v>0.0001147799295196465</v>
+      </c>
+      <c r="F16">
+        <v>-0.02627426174764475</v>
+      </c>
+      <c r="G16">
+        <v>0.006318087995122183</v>
+      </c>
+      <c r="H16">
+        <v>0.0573827479199239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0615665602604787</v>
+        <v>-0.06225477510416766</v>
       </c>
       <c r="C20">
-        <v>-0.038622191652254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01787646378328108</v>
+      </c>
+      <c r="D20">
+        <v>-0.05331755946589159</v>
+      </c>
+      <c r="E20">
+        <v>0.01739339217911124</v>
+      </c>
+      <c r="F20">
+        <v>-0.02653068696142731</v>
+      </c>
+      <c r="G20">
+        <v>0.003416730434917288</v>
+      </c>
+      <c r="H20">
+        <v>0.04859073991346007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02518191354463423</v>
+        <v>-0.02460864150963698</v>
       </c>
       <c r="C21">
-        <v>-0.002635124216930093</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.005912345733753149</v>
+      </c>
+      <c r="D21">
+        <v>-0.03440093615749649</v>
+      </c>
+      <c r="E21">
+        <v>0.07873416511885364</v>
+      </c>
+      <c r="F21">
+        <v>0.009187293915882603</v>
+      </c>
+      <c r="G21">
+        <v>-0.00699830501951058</v>
+      </c>
+      <c r="H21">
+        <v>-0.01238558762455149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.06862832961782755</v>
+        <v>-0.06266583360021527</v>
       </c>
       <c r="C22">
-        <v>-0.06749584017598255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.03920110252673909</v>
+      </c>
+      <c r="D22">
+        <v>-0.09719786492963547</v>
+      </c>
+      <c r="E22">
+        <v>0.6152536028413079</v>
+      </c>
+      <c r="F22">
+        <v>0.1181460396441081</v>
+      </c>
+      <c r="G22">
+        <v>0.02196582868111425</v>
+      </c>
+      <c r="H22">
+        <v>-0.1255524855720015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.06982786037698446</v>
+        <v>-0.06314961099410409</v>
       </c>
       <c r="C23">
-        <v>-0.06684527510011859</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03805315572275582</v>
+      </c>
+      <c r="D23">
+        <v>-0.09800595258640096</v>
+      </c>
+      <c r="E23">
+        <v>0.6143058703208375</v>
+      </c>
+      <c r="F23">
+        <v>0.1174585228177793</v>
+      </c>
+      <c r="G23">
+        <v>0.02068058772109755</v>
+      </c>
+      <c r="H23">
+        <v>-0.1207238376718061</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.06537020099360756</v>
+        <v>-0.07588009955380236</v>
       </c>
       <c r="C24">
-        <v>-0.05368698856493911</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03425038541788176</v>
+      </c>
+      <c r="D24">
+        <v>-0.06379711222019963</v>
+      </c>
+      <c r="E24">
+        <v>0.007503300530173364</v>
+      </c>
+      <c r="F24">
+        <v>-0.03628681499269266</v>
+      </c>
+      <c r="G24">
+        <v>-0.0007968608277156491</v>
+      </c>
+      <c r="H24">
+        <v>0.06607299640357968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.06579076568531651</v>
+        <v>-0.0751940162075075</v>
       </c>
       <c r="C25">
-        <v>-0.05957210071619577</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03954094559788719</v>
+      </c>
+      <c r="D25">
+        <v>-0.06103771406351883</v>
+      </c>
+      <c r="E25">
+        <v>0.01290637069340986</v>
+      </c>
+      <c r="F25">
+        <v>-0.03506056420874182</v>
+      </c>
+      <c r="G25">
+        <v>-0.01093695542508321</v>
+      </c>
+      <c r="H25">
+        <v>0.07035675224730542</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.03994217163965972</v>
+        <v>-0.04363317951319582</v>
       </c>
       <c r="C26">
-        <v>-0.01279282599994758</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.003925534610860236</v>
+      </c>
+      <c r="D26">
+        <v>-0.0277845580068844</v>
+      </c>
+      <c r="E26">
+        <v>0.03774555218804248</v>
+      </c>
+      <c r="F26">
+        <v>-0.02882786294788351</v>
+      </c>
+      <c r="G26">
+        <v>0.01167383567655246</v>
+      </c>
+      <c r="H26">
+        <v>0.06236989493132062</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.0588371540823709</v>
+        <v>-0.0758180693290969</v>
       </c>
       <c r="C28">
-        <v>-0.07358815095435683</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.07236377101151653</v>
+      </c>
+      <c r="D28">
+        <v>0.3167996320127359</v>
+      </c>
+      <c r="E28">
+        <v>0.03390947791999562</v>
+      </c>
+      <c r="F28">
+        <v>-0.05596050535866066</v>
+      </c>
+      <c r="G28">
+        <v>-0.02383694315189758</v>
+      </c>
+      <c r="H28">
+        <v>-0.001360178594619817</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.03788057116445327</v>
+        <v>-0.04505659004167099</v>
       </c>
       <c r="C29">
-        <v>-0.03090093220501906</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02286049633408698</v>
+      </c>
+      <c r="D29">
+        <v>-0.01017434440091197</v>
+      </c>
+      <c r="E29">
+        <v>0.04154048976556522</v>
+      </c>
+      <c r="F29">
+        <v>-0.01414240509470546</v>
+      </c>
+      <c r="G29">
+        <v>0.01564237627309838</v>
+      </c>
+      <c r="H29">
+        <v>0.09146394945503768</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1152376661305863</v>
+        <v>-0.1310037302314402</v>
       </c>
       <c r="C30">
-        <v>-0.09988807489979876</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06459606546564761</v>
+      </c>
+      <c r="D30">
+        <v>-0.09335857783787983</v>
+      </c>
+      <c r="E30">
+        <v>0.04276716458052512</v>
+      </c>
+      <c r="F30">
+        <v>-0.01155434953920486</v>
+      </c>
+      <c r="G30">
+        <v>-0.03222641164495159</v>
+      </c>
+      <c r="H30">
+        <v>-0.03177960896398242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.03904212443924381</v>
+        <v>-0.04461980509983096</v>
       </c>
       <c r="C31">
-        <v>-0.02109729695755921</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01147862617767602</v>
+      </c>
+      <c r="D31">
+        <v>-0.0263559184463539</v>
+      </c>
+      <c r="E31">
+        <v>0.02317283377126135</v>
+      </c>
+      <c r="F31">
+        <v>-0.01402494602229236</v>
+      </c>
+      <c r="G31">
+        <v>0.02234755338119204</v>
+      </c>
+      <c r="H31">
+        <v>0.06866884188120431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03620592401741324</v>
+        <v>-0.03337648332450749</v>
       </c>
       <c r="C32">
-        <v>-0.0228865758912838</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01187620374576703</v>
+      </c>
+      <c r="D32">
+        <v>-0.01125968108203605</v>
+      </c>
+      <c r="E32">
+        <v>0.07135900928329923</v>
+      </c>
+      <c r="F32">
+        <v>0.001137707296141961</v>
+      </c>
+      <c r="G32">
+        <v>-0.03565195888486464</v>
+      </c>
+      <c r="H32">
+        <v>0.04405606742226676</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.07412651102444874</v>
+        <v>-0.08865452941708776</v>
       </c>
       <c r="C33">
-        <v>-0.04668295008094363</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.02932475521905033</v>
+      </c>
+      <c r="D33">
+        <v>-0.05928675354351669</v>
+      </c>
+      <c r="E33">
+        <v>0.0161645719508576</v>
+      </c>
+      <c r="F33">
+        <v>-0.007680383794470311</v>
+      </c>
+      <c r="G33">
+        <v>0.01533250134777266</v>
+      </c>
+      <c r="H33">
+        <v>0.06099936667596243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05227502028938243</v>
+        <v>-0.05831150000727877</v>
       </c>
       <c r="C34">
-        <v>-0.03326124295742112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01701463786824372</v>
+      </c>
+      <c r="D34">
+        <v>-0.05968580934130766</v>
+      </c>
+      <c r="E34">
+        <v>0.002675697412057967</v>
+      </c>
+      <c r="F34">
+        <v>-0.0211129790328698</v>
+      </c>
+      <c r="G34">
+        <v>-0.00162938346420331</v>
+      </c>
+      <c r="H34">
+        <v>0.04952787808304143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03588295309070551</v>
+        <v>-0.04057409196847806</v>
       </c>
       <c r="C35">
-        <v>-0.01259957311448555</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.004830345010982692</v>
+      </c>
+      <c r="D35">
+        <v>-0.01419615713197724</v>
+      </c>
+      <c r="E35">
+        <v>0.02085479068292552</v>
+      </c>
+      <c r="F35">
+        <v>0.004842333505273575</v>
+      </c>
+      <c r="G35">
+        <v>0.01517379297116268</v>
+      </c>
+      <c r="H35">
+        <v>0.03911173658277134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01840248500355887</v>
+        <v>-0.02486292715702471</v>
       </c>
       <c r="C36">
-        <v>-0.01548405936929453</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01152729994985119</v>
+      </c>
+      <c r="D36">
+        <v>-0.01845021105199631</v>
+      </c>
+      <c r="E36">
+        <v>0.03970249987616185</v>
+      </c>
+      <c r="F36">
+        <v>-0.02135287917521634</v>
+      </c>
+      <c r="G36">
+        <v>0.01503554503370728</v>
+      </c>
+      <c r="H36">
+        <v>0.05441578175458784</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.03799750711027333</v>
+        <v>-0.04215893603455906</v>
       </c>
       <c r="C38">
-        <v>-0.006666855713615719</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-2.686593391043613e-05</v>
+      </c>
+      <c r="D38">
+        <v>-0.02169005771564873</v>
+      </c>
+      <c r="E38">
+        <v>0.05955629771478403</v>
+      </c>
+      <c r="F38">
+        <v>0.00734330112595512</v>
+      </c>
+      <c r="G38">
+        <v>-0.01750440183677701</v>
+      </c>
+      <c r="H38">
+        <v>0.03379917309733606</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.0870299260009971</v>
+        <v>-0.1009301143167767</v>
       </c>
       <c r="C39">
-        <v>-0.08190567536953916</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05477919270995311</v>
+      </c>
+      <c r="D39">
+        <v>-0.07697796259527542</v>
+      </c>
+      <c r="E39">
+        <v>-0.01337310435346503</v>
+      </c>
+      <c r="F39">
+        <v>-0.0101315824996743</v>
+      </c>
+      <c r="G39">
+        <v>-0.02477708894225737</v>
+      </c>
+      <c r="H39">
+        <v>0.05301445852373003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.06770596553686872</v>
+        <v>-0.07059672475348436</v>
       </c>
       <c r="C40">
-        <v>-0.05444489127978363</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.03228573593663361</v>
+      </c>
+      <c r="D40">
+        <v>-0.008728171191152842</v>
+      </c>
+      <c r="E40">
+        <v>0.02407985614810397</v>
+      </c>
+      <c r="F40">
+        <v>0.05793423603027938</v>
+      </c>
+      <c r="G40">
+        <v>-0.07683283078903523</v>
+      </c>
+      <c r="H40">
+        <v>-0.08993129271075116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.03923636425434288</v>
+        <v>-0.04286958515524449</v>
       </c>
       <c r="C41">
-        <v>-0.0119672893759307</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.003446409748833287</v>
+      </c>
+      <c r="D41">
+        <v>-0.03906708198374446</v>
+      </c>
+      <c r="E41">
+        <v>0.007052597248152815</v>
+      </c>
+      <c r="F41">
+        <v>0.007769310984521429</v>
+      </c>
+      <c r="G41">
+        <v>-0.01098249099328526</v>
+      </c>
+      <c r="H41">
+        <v>0.0454233007105297</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.04393008194896646</v>
+        <v>-0.05252475999065102</v>
       </c>
       <c r="C43">
-        <v>-0.02900278615666237</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.01822382741029021</v>
+      </c>
+      <c r="D43">
+        <v>-0.02602286028503342</v>
+      </c>
+      <c r="E43">
+        <v>0.01754430362586053</v>
+      </c>
+      <c r="F43">
+        <v>-0.01329199517432095</v>
+      </c>
+      <c r="G43">
+        <v>0.006776701588591134</v>
+      </c>
+      <c r="H43">
+        <v>0.05191090736552738</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.0914100325885875</v>
+        <v>-0.0913903737335449</v>
       </c>
       <c r="C44">
-        <v>-0.09632352207085464</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06271736590277587</v>
+      </c>
+      <c r="D44">
+        <v>-0.06065959621271203</v>
+      </c>
+      <c r="E44">
+        <v>0.09905168872173448</v>
+      </c>
+      <c r="F44">
+        <v>-0.05470507145514001</v>
+      </c>
+      <c r="G44">
+        <v>-0.02858107536366902</v>
+      </c>
+      <c r="H44">
+        <v>-0.03936558388673505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02552871987086271</v>
+        <v>-0.02838674733029664</v>
       </c>
       <c r="C46">
-        <v>-0.01584505244200467</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.00858008243618986</v>
+      </c>
+      <c r="D46">
+        <v>-0.03231933674977165</v>
+      </c>
+      <c r="E46">
+        <v>0.01906598698772711</v>
+      </c>
+      <c r="F46">
+        <v>-0.01705182461984438</v>
+      </c>
+      <c r="G46">
+        <v>-0.001251426157585275</v>
+      </c>
+      <c r="H46">
+        <v>0.04502111729685038</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.02639715614513871</v>
+        <v>-0.02900621704940991</v>
       </c>
       <c r="C47">
-        <v>-0.02122936980008298</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01377653902913785</v>
+      </c>
+      <c r="D47">
+        <v>-0.01256342630395799</v>
+      </c>
+      <c r="E47">
+        <v>0.04770338362569167</v>
+      </c>
+      <c r="F47">
+        <v>-0.01597501384805958</v>
+      </c>
+      <c r="G47">
+        <v>0.03648595664002097</v>
+      </c>
+      <c r="H47">
+        <v>0.03396791949861599</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02857346644938333</v>
+        <v>-0.03359377143693263</v>
       </c>
       <c r="C48">
-        <v>-0.02015903280312466</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.01210848068210033</v>
+      </c>
+      <c r="D48">
+        <v>-0.03159645556791599</v>
+      </c>
+      <c r="E48">
+        <v>0.04127544097477946</v>
+      </c>
+      <c r="F48">
+        <v>-0.01012685494108165</v>
+      </c>
+      <c r="G48">
+        <v>-0.005639041738833952</v>
+      </c>
+      <c r="H48">
+        <v>0.05586952503324973</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1529977467535342</v>
+        <v>-0.1822750477390641</v>
       </c>
       <c r="C49">
-        <v>-0.08878548964493696</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.05392815071885301</v>
+      </c>
+      <c r="D49">
+        <v>-0.02340813922628796</v>
+      </c>
+      <c r="E49">
+        <v>-0.1274159142973212</v>
+      </c>
+      <c r="F49">
+        <v>-0.02988043456992158</v>
+      </c>
+      <c r="G49">
+        <v>0.043364922292331</v>
+      </c>
+      <c r="H49">
+        <v>-0.2645575149878058</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03448565200403991</v>
+        <v>-0.04256821482732808</v>
       </c>
       <c r="C50">
-        <v>-0.02631687054734593</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01970721540411288</v>
+      </c>
+      <c r="D50">
+        <v>-0.03310056463203945</v>
+      </c>
+      <c r="E50">
+        <v>0.04787496648221718</v>
+      </c>
+      <c r="F50">
+        <v>-0.02638454066087228</v>
+      </c>
+      <c r="G50">
+        <v>0.01778364006187434</v>
+      </c>
+      <c r="H50">
+        <v>0.07114589336617712</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.0244555416066677</v>
+        <v>-0.02664736574770019</v>
       </c>
       <c r="C51">
-        <v>-0.01447958012107722</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.009275406210164773</v>
+      </c>
+      <c r="D51">
+        <v>-0.02309105289648749</v>
+      </c>
+      <c r="E51">
+        <v>0.01544289918939616</v>
+      </c>
+      <c r="F51">
+        <v>-0.01284421851094831</v>
+      </c>
+      <c r="G51">
+        <v>-0.004295415205050571</v>
+      </c>
+      <c r="H51">
+        <v>0.01329157379618937</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1399620573368734</v>
+        <v>-0.1582325713614751</v>
       </c>
       <c r="C53">
-        <v>-0.09252598095759147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.0616746209066925</v>
+      </c>
+      <c r="D53">
+        <v>-0.02175047093957257</v>
+      </c>
+      <c r="E53">
+        <v>-0.03868286639618396</v>
+      </c>
+      <c r="F53">
+        <v>-0.01786466413360891</v>
+      </c>
+      <c r="G53">
+        <v>0.005077736489908037</v>
+      </c>
+      <c r="H53">
+        <v>0.154080354187454</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05248555291219967</v>
+        <v>-0.05587895899496219</v>
       </c>
       <c r="C54">
-        <v>-0.02705369971258475</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01271876045246218</v>
+      </c>
+      <c r="D54">
+        <v>-0.02910142406193069</v>
+      </c>
+      <c r="E54">
+        <v>0.04761297239217164</v>
+      </c>
+      <c r="F54">
+        <v>-0.01395522732273014</v>
+      </c>
+      <c r="G54">
+        <v>-0.005967063771993449</v>
+      </c>
+      <c r="H54">
+        <v>0.06193298052109657</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.0926442355104337</v>
+        <v>-0.099049873997062</v>
       </c>
       <c r="C55">
-        <v>-0.06185036574490335</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.03914395017116691</v>
+      </c>
+      <c r="D55">
+        <v>-0.02842388157351263</v>
+      </c>
+      <c r="E55">
+        <v>0.00819727326551099</v>
+      </c>
+      <c r="F55">
+        <v>-0.01791608291967888</v>
+      </c>
+      <c r="G55">
+        <v>0.0006839959272779771</v>
+      </c>
+      <c r="H55">
+        <v>0.1431633299964299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1390636623162589</v>
+        <v>-0.1573242320945264</v>
       </c>
       <c r="C56">
-        <v>-0.1051204674520075</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.07130727967515793</v>
+      </c>
+      <c r="D56">
+        <v>-0.01528697295429921</v>
+      </c>
+      <c r="E56">
+        <v>-0.04082221753825978</v>
+      </c>
+      <c r="F56">
+        <v>-0.04135760168153817</v>
+      </c>
+      <c r="G56">
+        <v>0.01624922751674129</v>
+      </c>
+      <c r="H56">
+        <v>0.15330486063521</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1189744358437679</v>
+        <v>-0.1021320482569836</v>
       </c>
       <c r="C58">
-        <v>-0.02291268472993832</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.01890590373430413</v>
+      </c>
+      <c r="D58">
+        <v>-0.05687205096595665</v>
+      </c>
+      <c r="E58">
+        <v>0.182652143694482</v>
+      </c>
+      <c r="F58">
+        <v>-0.01544471329418461</v>
+      </c>
+      <c r="G58">
+        <v>0.0380688596172253</v>
+      </c>
+      <c r="H58">
+        <v>-0.181648124672115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1159604292886409</v>
+        <v>-0.1486020897281929</v>
       </c>
       <c r="C59">
-        <v>-0.08501736017020244</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08047437602544089</v>
+      </c>
+      <c r="D59">
+        <v>0.3573894736111825</v>
+      </c>
+      <c r="E59">
+        <v>0.0450403594380165</v>
+      </c>
+      <c r="F59">
+        <v>0.002223398866158844</v>
+      </c>
+      <c r="G59">
+        <v>0.04322000481214896</v>
+      </c>
+      <c r="H59">
+        <v>-0.003419854638719079</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1889716927003929</v>
+        <v>-0.2217881727706031</v>
       </c>
       <c r="C60">
-        <v>-0.1174399225399389</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.0769802190314049</v>
+      </c>
+      <c r="D60">
+        <v>-0.02958953367591422</v>
+      </c>
+      <c r="E60">
+        <v>-0.0725875130684753</v>
+      </c>
+      <c r="F60">
+        <v>-0.04710153672617264</v>
+      </c>
+      <c r="G60">
+        <v>-0.02602941021329865</v>
+      </c>
+      <c r="H60">
+        <v>-0.1623704200327702</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.07500326389312895</v>
+        <v>-0.08613153589797065</v>
       </c>
       <c r="C61">
-        <v>-0.06199632325024581</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.04128651704034633</v>
+      </c>
+      <c r="D61">
+        <v>-0.05851823544104374</v>
+      </c>
+      <c r="E61">
+        <v>-0.01718724794332436</v>
+      </c>
+      <c r="F61">
+        <v>-0.004922904245043265</v>
+      </c>
+      <c r="G61">
+        <v>0.01038465298334683</v>
+      </c>
+      <c r="H61">
+        <v>0.06975401583861854</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1212932884108894</v>
+        <v>-0.1388972444965864</v>
       </c>
       <c r="C62">
-        <v>-0.08035456923780389</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.05311436689986694</v>
+      </c>
+      <c r="D62">
+        <v>-0.02301485327329162</v>
+      </c>
+      <c r="E62">
+        <v>-0.05525434294492754</v>
+      </c>
+      <c r="F62">
+        <v>-0.01272626952384228</v>
+      </c>
+      <c r="G62">
+        <v>-0.02801342739906609</v>
+      </c>
+      <c r="H62">
+        <v>0.1510619064497692</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05084468089893437</v>
+        <v>-0.05041900737277127</v>
       </c>
       <c r="C63">
-        <v>-0.03133496513609069</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01603459048179017</v>
+      </c>
+      <c r="D63">
+        <v>-0.0262776405954992</v>
+      </c>
+      <c r="E63">
+        <v>0.04918120448486812</v>
+      </c>
+      <c r="F63">
+        <v>-0.0110214457892287</v>
+      </c>
+      <c r="G63">
+        <v>-0.03258864730711779</v>
+      </c>
+      <c r="H63">
+        <v>0.08618078660147947</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1040670241272538</v>
+        <v>-0.1112791804439999</v>
       </c>
       <c r="C64">
-        <v>-0.04187191274189069</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.0148065792954281</v>
+      </c>
+      <c r="D64">
+        <v>-0.05337493196369618</v>
+      </c>
+      <c r="E64">
+        <v>0.0220424481159555</v>
+      </c>
+      <c r="F64">
+        <v>-0.05491257983222825</v>
+      </c>
+      <c r="G64">
+        <v>-0.02487886496382381</v>
+      </c>
+      <c r="H64">
+        <v>0.07614261253427219</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1127135702558004</v>
+        <v>-0.1242707600162326</v>
       </c>
       <c r="C65">
-        <v>-0.06602324334731317</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04044810447691394</v>
+      </c>
+      <c r="D65">
+        <v>-0.006247624402446923</v>
+      </c>
+      <c r="E65">
+        <v>0.0002653767600335988</v>
+      </c>
+      <c r="F65">
+        <v>-0.06144669094936144</v>
+      </c>
+      <c r="G65">
+        <v>-0.03637275523163976</v>
+      </c>
+      <c r="H65">
+        <v>-0.08770585593360516</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1340786415606258</v>
+        <v>-0.1520441194048392</v>
       </c>
       <c r="C66">
-        <v>-0.09219849460302036</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.05590167890310142</v>
+      </c>
+      <c r="D66">
+        <v>-0.1139640321556858</v>
+      </c>
+      <c r="E66">
+        <v>-0.05219202712739981</v>
+      </c>
+      <c r="F66">
+        <v>-0.02445543518843658</v>
+      </c>
+      <c r="G66">
+        <v>-0.02894917836708485</v>
+      </c>
+      <c r="H66">
+        <v>0.1263154286160581</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07023517214424102</v>
+        <v>-0.07786046570746247</v>
       </c>
       <c r="C67">
-        <v>-0.02076538828786181</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.006938753210676983</v>
+      </c>
+      <c r="D67">
+        <v>-0.03170722637466503</v>
+      </c>
+      <c r="E67">
+        <v>0.02756215739226085</v>
+      </c>
+      <c r="F67">
+        <v>-0.01356890901985179</v>
+      </c>
+      <c r="G67">
+        <v>0.003679240948416626</v>
+      </c>
+      <c r="H67">
+        <v>0.02993756570167999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05940213655963669</v>
+        <v>-0.06961168123052308</v>
       </c>
       <c r="C68">
-        <v>-0.04997362739712397</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04811866995782085</v>
+      </c>
+      <c r="D68">
+        <v>0.2643075578079628</v>
+      </c>
+      <c r="E68">
+        <v>0.04895522257095922</v>
+      </c>
+      <c r="F68">
+        <v>-0.01161253846488232</v>
+      </c>
+      <c r="G68">
+        <v>0.01133391399089107</v>
+      </c>
+      <c r="H68">
+        <v>0.02285007818178977</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.04829215142165055</v>
+        <v>-0.04752444932557041</v>
       </c>
       <c r="C69">
-        <v>-0.02297136842798848</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.007668995332729206</v>
+      </c>
+      <c r="D69">
+        <v>-0.02112971223637677</v>
+      </c>
+      <c r="E69">
+        <v>0.02420776462570682</v>
+      </c>
+      <c r="F69">
+        <v>0.003749120715629221</v>
+      </c>
+      <c r="G69">
+        <v>0.008650190293105412</v>
+      </c>
+      <c r="H69">
+        <v>0.06334589294300011</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.005010822693134622</v>
+        <v>-0.01916487757942452</v>
       </c>
       <c r="C70">
-        <v>0.003245127311870895</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0006008036393832522</v>
+      </c>
+      <c r="D70">
+        <v>0.0009964995934841549</v>
+      </c>
+      <c r="E70">
+        <v>-0.02753138299436434</v>
+      </c>
+      <c r="F70">
+        <v>-0.01663549476144591</v>
+      </c>
+      <c r="G70">
+        <v>0.01774916639207367</v>
+      </c>
+      <c r="H70">
+        <v>-0.05687551786646701</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06260282089604359</v>
+        <v>-0.07341616706945828</v>
       </c>
       <c r="C71">
-        <v>-0.04765071537212837</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04638235384664194</v>
+      </c>
+      <c r="D71">
+        <v>0.2945552382846464</v>
+      </c>
+      <c r="E71">
+        <v>0.04526311663661921</v>
+      </c>
+      <c r="F71">
+        <v>-0.0394523233188503</v>
+      </c>
+      <c r="G71">
+        <v>0.008780187046858587</v>
+      </c>
+      <c r="H71">
+        <v>0.01268865208909451</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.134144640486383</v>
+        <v>-0.1544976998147001</v>
       </c>
       <c r="C72">
-        <v>-0.07109789892258507</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.04302610336722579</v>
+      </c>
+      <c r="D72">
+        <v>-0.002592889994399308</v>
+      </c>
+      <c r="E72">
+        <v>-0.08933531338868114</v>
+      </c>
+      <c r="F72">
+        <v>0.1652438970493901</v>
+      </c>
+      <c r="G72">
+        <v>-0.1117633979646895</v>
+      </c>
+      <c r="H72">
+        <v>0.02424252129924445</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2495702448513426</v>
+        <v>-0.2808321724654685</v>
       </c>
       <c r="C73">
-        <v>-0.1418463895837093</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.07769411712252336</v>
+      </c>
+      <c r="D73">
+        <v>-0.09235708413538395</v>
+      </c>
+      <c r="E73">
+        <v>-0.187826497696571</v>
+      </c>
+      <c r="F73">
+        <v>-0.07946133125176136</v>
+      </c>
+      <c r="G73">
+        <v>0.1805679444290143</v>
+      </c>
+      <c r="H73">
+        <v>-0.5719438079283149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07325482953400969</v>
+        <v>-0.08847039875691552</v>
       </c>
       <c r="C74">
-        <v>-0.0833435136706277</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.06298365356183298</v>
+      </c>
+      <c r="D74">
+        <v>-0.02877912922550375</v>
+      </c>
+      <c r="E74">
+        <v>-0.006524043952235971</v>
+      </c>
+      <c r="F74">
+        <v>0.01180938301004145</v>
+      </c>
+      <c r="G74">
+        <v>0.03618956331259231</v>
+      </c>
+      <c r="H74">
+        <v>0.1283382836320108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09355133250219637</v>
+        <v>-0.1015214580194611</v>
       </c>
       <c r="C75">
-        <v>-0.06007032089297294</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.03151835146237815</v>
+      </c>
+      <c r="D75">
+        <v>-0.008090071117254688</v>
+      </c>
+      <c r="E75">
+        <v>-0.002628756579814077</v>
+      </c>
+      <c r="F75">
+        <v>-0.04619272949849106</v>
+      </c>
+      <c r="G75">
+        <v>0.01975263695749712</v>
+      </c>
+      <c r="H75">
+        <v>0.1170381370830309</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1173667493244631</v>
+        <v>-0.1324462982547181</v>
       </c>
       <c r="C76">
-        <v>-0.09836308876977418</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.06752278418797693</v>
+      </c>
+      <c r="D76">
+        <v>-0.05068366617462309</v>
+      </c>
+      <c r="E76">
+        <v>0.01016820004492337</v>
+      </c>
+      <c r="F76">
+        <v>-0.06177648000843276</v>
+      </c>
+      <c r="G76">
+        <v>0.008245272096766725</v>
+      </c>
+      <c r="H76">
+        <v>0.1585500442784532</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1170658122484419</v>
+        <v>-0.1138433113036487</v>
       </c>
       <c r="C77">
-        <v>-0.05233342455895097</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.01607624524206957</v>
+      </c>
+      <c r="D77">
+        <v>-0.01653554973313428</v>
+      </c>
+      <c r="E77">
+        <v>-0.01719889257568194</v>
+      </c>
+      <c r="F77">
+        <v>-0.2168504189355242</v>
+      </c>
+      <c r="G77">
+        <v>-0.8896761801041221</v>
+      </c>
+      <c r="H77">
+        <v>-0.1338609113804974</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.08827005554314146</v>
+        <v>-0.1147729902234065</v>
       </c>
       <c r="C78">
-        <v>-0.04883651215012994</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03349726540612984</v>
+      </c>
+      <c r="D78">
+        <v>-0.09169849734225112</v>
+      </c>
+      <c r="E78">
+        <v>0.06085564018696867</v>
+      </c>
+      <c r="F78">
+        <v>-0.01636094521863396</v>
+      </c>
+      <c r="G78">
+        <v>-0.03736754820150155</v>
+      </c>
+      <c r="H78">
+        <v>-0.1057779384354359</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.137474514670758</v>
+        <v>-0.1503632641880499</v>
       </c>
       <c r="C79">
-        <v>-0.1004015745453369</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.06066148061565416</v>
+      </c>
+      <c r="D79">
+        <v>-0.02696134240139838</v>
+      </c>
+      <c r="E79">
+        <v>-0.02569328047339502</v>
+      </c>
+      <c r="F79">
+        <v>-0.01945774758875102</v>
+      </c>
+      <c r="G79">
+        <v>0.02174385130788564</v>
+      </c>
+      <c r="H79">
+        <v>0.155014934749115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04013009475317708</v>
+        <v>-0.04041641827714641</v>
       </c>
       <c r="C80">
-        <v>-0.01876410212129278</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.007615979471519244</v>
+      </c>
+      <c r="D80">
+        <v>-0.02897474721118373</v>
+      </c>
+      <c r="E80">
+        <v>-0.002212959210126451</v>
+      </c>
+      <c r="F80">
+        <v>0.02167813681121983</v>
+      </c>
+      <c r="G80">
+        <v>0.03711355749803538</v>
+      </c>
+      <c r="H80">
+        <v>0.0474643554632245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1108253483864535</v>
+        <v>-0.1178767060048549</v>
       </c>
       <c r="C81">
-        <v>-0.06980329375498658</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03838636482756355</v>
+      </c>
+      <c r="D81">
+        <v>-0.02803361721359865</v>
+      </c>
+      <c r="E81">
+        <v>-0.00447483412534796</v>
+      </c>
+      <c r="F81">
+        <v>-0.03180229081386597</v>
+      </c>
+      <c r="G81">
+        <v>0.0595542345756307</v>
+      </c>
+      <c r="H81">
+        <v>0.1735954678047762</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1188885656205404</v>
+        <v>-0.1274422283243485</v>
       </c>
       <c r="C82">
-        <v>-0.08660142675757664</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.05436788171868802</v>
+      </c>
+      <c r="D82">
+        <v>-0.03195288619681264</v>
+      </c>
+      <c r="E82">
+        <v>-0.02147247854937447</v>
+      </c>
+      <c r="F82">
+        <v>-0.05643554956290682</v>
+      </c>
+      <c r="G82">
+        <v>0.05257420970079615</v>
+      </c>
+      <c r="H82">
+        <v>0.171756471744759</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07176689967901495</v>
+        <v>-0.07872961640250169</v>
       </c>
       <c r="C83">
-        <v>-0.01315156335514329</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.005563629682129152</v>
+      </c>
+      <c r="D83">
+        <v>-0.05291225344083129</v>
+      </c>
+      <c r="E83">
+        <v>0.01398744202758333</v>
+      </c>
+      <c r="F83">
+        <v>-0.02845145461741032</v>
+      </c>
+      <c r="G83">
+        <v>0.08729613650085885</v>
+      </c>
+      <c r="H83">
+        <v>-0.02822012515999624</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02621815543504512</v>
+        <v>-0.03750151460166663</v>
       </c>
       <c r="C84">
-        <v>-0.02483522946535163</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.02137985737122135</v>
+      </c>
+      <c r="D84">
+        <v>-0.03552038334705965</v>
+      </c>
+      <c r="E84">
+        <v>0.02378186330196855</v>
+      </c>
+      <c r="F84">
+        <v>0.04858000598453635</v>
+      </c>
+      <c r="G84">
+        <v>0.05926810723413373</v>
+      </c>
+      <c r="H84">
+        <v>0.01388521407564587</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1143318604201345</v>
+        <v>-0.115783150314221</v>
       </c>
       <c r="C85">
-        <v>-0.06681345929469809</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03235204214146801</v>
+      </c>
+      <c r="D85">
+        <v>-0.02539406604054653</v>
+      </c>
+      <c r="E85">
+        <v>0.002315869580108545</v>
+      </c>
+      <c r="F85">
+        <v>-0.06620887022033799</v>
+      </c>
+      <c r="G85">
+        <v>0.02492801346890044</v>
+      </c>
+      <c r="H85">
+        <v>0.1339033975619349</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.04716231732001818</v>
+        <v>-0.04946800244530963</v>
       </c>
       <c r="C86">
-        <v>-0.02508005556513529</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01202429822788591</v>
+      </c>
+      <c r="D86">
+        <v>-0.02139249302999451</v>
+      </c>
+      <c r="E86">
+        <v>0.05809652247434489</v>
+      </c>
+      <c r="F86">
+        <v>-0.02725386963905988</v>
+      </c>
+      <c r="G86">
+        <v>0.008036325856212743</v>
+      </c>
+      <c r="H86">
+        <v>0.01652949719695198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1182505444435604</v>
+        <v>-0.1213939285434638</v>
       </c>
       <c r="C87">
-        <v>-0.07920354314252211</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.03962752442911903</v>
+      </c>
+      <c r="D87">
+        <v>-0.07003441270609055</v>
+      </c>
+      <c r="E87">
+        <v>0.01512408735237852</v>
+      </c>
+      <c r="F87">
+        <v>-0.01606810447983417</v>
+      </c>
+      <c r="G87">
+        <v>-0.1018695272528779</v>
+      </c>
+      <c r="H87">
+        <v>0.004584384369825158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05249905177219252</v>
+        <v>-0.05756374157680176</v>
       </c>
       <c r="C88">
-        <v>-0.03318757636959904</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.01955349085544313</v>
+      </c>
+      <c r="D88">
+        <v>-0.02380908523892018</v>
+      </c>
+      <c r="E88">
+        <v>0.01849045760742352</v>
+      </c>
+      <c r="F88">
+        <v>-0.01039548153979896</v>
+      </c>
+      <c r="G88">
+        <v>-0.009699102769631143</v>
+      </c>
+      <c r="H88">
+        <v>0.0674139439236885</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08437315263180389</v>
+        <v>-0.107790119484545</v>
       </c>
       <c r="C89">
-        <v>-0.07329247839019289</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07275006777044445</v>
+      </c>
+      <c r="D89">
+        <v>0.3282906200731688</v>
+      </c>
+      <c r="E89">
+        <v>0.07359259139548401</v>
+      </c>
+      <c r="F89">
+        <v>-0.06712862410925848</v>
+      </c>
+      <c r="G89">
+        <v>0.0226054938241264</v>
+      </c>
+      <c r="H89">
+        <v>-0.003269845698156824</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07467228151824282</v>
+        <v>-0.08969315866086258</v>
       </c>
       <c r="C90">
-        <v>-0.058485306211554</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.05631945909078021</v>
+      </c>
+      <c r="D90">
+        <v>0.3047916102341974</v>
+      </c>
+      <c r="E90">
+        <v>0.06302295278036535</v>
+      </c>
+      <c r="F90">
+        <v>0.002236234695027174</v>
+      </c>
+      <c r="G90">
+        <v>0.003050173847985052</v>
+      </c>
+      <c r="H90">
+        <v>0.02017508522151301</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.07793872778563489</v>
+        <v>-0.08644657484756639</v>
       </c>
       <c r="C91">
-        <v>-0.06494821513479486</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.04180821581641048</v>
+      </c>
+      <c r="D91">
+        <v>-0.02327039006149213</v>
+      </c>
+      <c r="E91">
+        <v>0.01316418699905402</v>
+      </c>
+      <c r="F91">
+        <v>-0.008867549611696552</v>
+      </c>
+      <c r="G91">
+        <v>0.04471545841739592</v>
+      </c>
+      <c r="H91">
+        <v>0.08519054600178899</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.08555833495723848</v>
+        <v>-0.1007524218839079</v>
       </c>
       <c r="C92">
-        <v>-0.0733686345774565</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.06756257420287086</v>
+      </c>
+      <c r="D92">
+        <v>0.3437911599081205</v>
+      </c>
+      <c r="E92">
+        <v>0.05096973602716871</v>
+      </c>
+      <c r="F92">
+        <v>-0.03405504312685046</v>
+      </c>
+      <c r="G92">
+        <v>0.001525243248302285</v>
+      </c>
+      <c r="H92">
+        <v>0.01778651985286886</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06810910046071182</v>
+        <v>-0.08675743996172582</v>
       </c>
       <c r="C93">
-        <v>-0.06224784337708218</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.06340642363477569</v>
+      </c>
+      <c r="D93">
+        <v>0.3015825749699966</v>
+      </c>
+      <c r="E93">
+        <v>0.0345414137625342</v>
+      </c>
+      <c r="F93">
+        <v>-0.04373795916409278</v>
+      </c>
+      <c r="G93">
+        <v>0.0003835150534815082</v>
+      </c>
+      <c r="H93">
+        <v>-0.0124956370883355</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1243441577874765</v>
+        <v>-0.1272459944263074</v>
       </c>
       <c r="C94">
-        <v>-0.07388749194375434</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03441769606443606</v>
+      </c>
+      <c r="D94">
+        <v>-0.05090667574348016</v>
+      </c>
+      <c r="E94">
+        <v>-0.02242013369508315</v>
+      </c>
+      <c r="F94">
+        <v>-0.02798875296935702</v>
+      </c>
+      <c r="G94">
+        <v>0.04576855007381941</v>
+      </c>
+      <c r="H94">
+        <v>0.088735131841552</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1116624763082342</v>
+        <v>-0.1201622961890391</v>
       </c>
       <c r="C95">
-        <v>-0.05453178441706811</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.0223285355794235</v>
+      </c>
+      <c r="D95">
+        <v>-0.06260538021132366</v>
+      </c>
+      <c r="E95">
+        <v>-0.01225729053311276</v>
+      </c>
+      <c r="F95">
+        <v>-0.02764962816486935</v>
+      </c>
+      <c r="G95">
+        <v>0.01254295157035719</v>
+      </c>
+      <c r="H95">
+        <v>0.01037058352117725</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2023976784412114</v>
+        <v>-0.217211575073941</v>
       </c>
       <c r="C97">
-        <v>-0.06667528711216367</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.02186418178061884</v>
+      </c>
+      <c r="D97">
+        <v>0.04683751768895428</v>
+      </c>
+      <c r="E97">
+        <v>-0.1474482728678967</v>
+      </c>
+      <c r="F97">
+        <v>0.9007021067474887</v>
+      </c>
+      <c r="G97">
+        <v>-0.157926218606203</v>
+      </c>
+      <c r="H97">
+        <v>0.01042801385422457</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2390911761285385</v>
+        <v>-0.268945319036869</v>
       </c>
       <c r="C98">
-        <v>-0.1077719729060302</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.04920993805791486</v>
+      </c>
+      <c r="D98">
+        <v>-0.06187417975311069</v>
+      </c>
+      <c r="E98">
+        <v>-0.159692202746527</v>
+      </c>
+      <c r="F98">
+        <v>-0.04553906071766158</v>
+      </c>
+      <c r="G98">
+        <v>0.2608363200830324</v>
+      </c>
+      <c r="H98">
+        <v>-0.1898297729386103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.5348256197080137</v>
+        <v>-0.3301592475886804</v>
       </c>
       <c r="C99">
-        <v>0.8339138124757345</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9309005397078702</v>
+      </c>
+      <c r="D99">
+        <v>0.07573195161505225</v>
+      </c>
+      <c r="E99">
+        <v>0.04190001864815478</v>
+      </c>
+      <c r="F99">
+        <v>-0.04576191729200609</v>
+      </c>
+      <c r="G99">
+        <v>0.01350074662544564</v>
+      </c>
+      <c r="H99">
+        <v>0.04290669546687725</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.03796072734696511</v>
+        <v>-0.04516429753573852</v>
       </c>
       <c r="C101">
-        <v>-0.03091356770789233</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02294799370523986</v>
+      </c>
+      <c r="D101">
+        <v>-0.01068679611484874</v>
+      </c>
+      <c r="E101">
+        <v>0.04077034745562733</v>
+      </c>
+      <c r="F101">
+        <v>-0.01354655940366694</v>
+      </c>
+      <c r="G101">
+        <v>0.01570238819118456</v>
+      </c>
+      <c r="H101">
+        <v>0.09072910128865219</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
